--- a/Data/EC/NIT-9014476331.xlsx
+++ b/Data/EC/NIT-9014476331.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC977F0F-F15C-4E50-8EDE-6A980EAEBCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A44D74E7-082A-4391-B3F0-24B5B2DE3486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC40B5D2-2130-4CE3-A0BC-2794357E2A5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA1F0995-0453-4ACC-A9EE-C4C042332B88}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,135 @@
     <t>DOMINGO ARNACHE TORRES</t>
   </si>
   <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2103</t>
   </si>
   <si>
@@ -78,135 +207,6 @@
   </si>
   <si>
     <t>LUIS FELIPE MEJIA SANGUINO</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -620,7 +620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3762FD6-ED9C-BFDB-31BB-6A6E1CF2D862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DECC71-A3F2-C664-97B1-7B7AD20524B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FB79AC-04BD-4F0C-98CE-9FB8618FFE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFBD61D-8BDD-4A02-960A-1D8E7F3937DA}">
   <dimension ref="B2:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>87218</v>
+        <v>26166</v>
       </c>
       <c r="G16" s="18">
         <v>2180462</v>
@@ -1163,19 +1163,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G17" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1186,19 +1186,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G18" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1232,19 +1232,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G20" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>87218</v>
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>87218</v>
@@ -1301,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G23" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1330,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>87218</v>
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G25" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1376,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>87218</v>
@@ -1393,19 +1393,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G27" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1416,19 +1416,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G28" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>87218</v>
@@ -1468,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>87218</v>
@@ -1485,19 +1485,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G31" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1508,19 +1508,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G32" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1537,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>87218</v>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>87218</v>
@@ -1577,19 +1577,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G35" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1606,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>87218</v>
@@ -1623,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G37" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1646,19 +1646,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G38" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>87218</v>
@@ -1692,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G40" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1721,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>87218</v>
@@ -1738,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G42" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>87218</v>
@@ -1784,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G44" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1813,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>87218</v>
@@ -1830,19 +1830,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G46" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>87218</v>
@@ -1876,19 +1876,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G48" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1905,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>87218</v>
@@ -1922,19 +1922,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G50" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1951,7 +1951,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>87218</v>
@@ -1968,19 +1968,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G52" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>87218</v>
@@ -2020,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>87218</v>
@@ -2037,19 +2037,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G55" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2066,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>87218</v>
@@ -2083,19 +2083,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G57" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2112,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>87218</v>
@@ -2129,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G59" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2152,19 +2152,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18">
-        <v>87218</v>
+        <v>21914</v>
       </c>
       <c r="G60" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2175,13 +2175,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>73045</v>
@@ -2198,19 +2198,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F62" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G62" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2221,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F63" s="18">
         <v>73045</v>
@@ -2244,19 +2244,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F64" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G64" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2267,13 +2267,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F65" s="18">
         <v>73045</v>
@@ -2290,19 +2290,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F66" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G66" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2313,13 +2313,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F67" s="18">
         <v>73045</v>
@@ -2336,19 +2336,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F68" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G68" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2359,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F69" s="18">
         <v>73045</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F70" s="18">
         <v>73045</v>
@@ -2405,19 +2405,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F71" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G71" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2428,13 +2428,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F72" s="18">
         <v>73045</v>
@@ -2451,19 +2451,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F73" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G73" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2474,13 +2474,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F74" s="18">
         <v>73045</v>
@@ -2497,19 +2497,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F75" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G75" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2520,19 +2520,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F76" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G76" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2543,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F77" s="18">
         <v>73045</v>
@@ -2566,13 +2566,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F78" s="18">
         <v>73045</v>
@@ -2589,19 +2589,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F79" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G79" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2612,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F80" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G80" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2635,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F81" s="18">
         <v>73045</v>
@@ -2658,13 +2658,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F82" s="18">
         <v>73045</v>
@@ -2681,19 +2681,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F83" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G83" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2704,19 +2704,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F84" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G84" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2727,13 +2727,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F85" s="18">
         <v>73045</v>
@@ -2750,13 +2750,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F86" s="18">
         <v>73045</v>
@@ -2773,19 +2773,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G87" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2796,19 +2796,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G88" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2819,13 +2819,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F89" s="18">
         <v>73045</v>
@@ -2842,19 +2842,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F90" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G90" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2865,13 +2865,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F91" s="18">
         <v>73045</v>
@@ -2888,19 +2888,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F92" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G92" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2911,13 +2911,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
         <v>73045</v>
@@ -2934,13 +2934,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F94" s="18">
         <v>73045</v>
@@ -2957,19 +2957,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F95" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G95" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2980,19 +2980,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F96" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G96" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3003,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F97" s="18">
         <v>73045</v>
@@ -3026,13 +3026,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F98" s="18">
         <v>73045</v>
@@ -3049,19 +3049,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F99" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G99" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3072,13 +3072,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F100" s="18">
         <v>73045</v>
@@ -3095,19 +3095,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F101" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G101" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3118,16 +3118,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F102" s="18">
-        <v>21914</v>
+        <v>73045</v>
       </c>
       <c r="G102" s="18">
         <v>1826137</v>
@@ -3141,19 +3141,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F103" s="24">
-        <v>26166</v>
+        <v>73045</v>
       </c>
       <c r="G103" s="24">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>

--- a/Data/EC/NIT-9014476331.xlsx
+++ b/Data/EC/NIT-9014476331.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A44D74E7-082A-4391-B3F0-24B5B2DE3486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5784EA-1D94-4027-9B44-422CE8CDD968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA1F0995-0453-4ACC-A9EE-C4C042332B88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{46E2F95E-11F5-4D19-9A26-CB20A3A8B311}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,142 +71,142 @@
     <t>DOMINGO ARNACHE TORRES</t>
   </si>
   <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>1050542829</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE MEJIA SANGUINO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1050542829</t>
-  </si>
-  <si>
-    <t>LUIS FELIPE MEJIA SANGUINO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -305,7 +305,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -318,9 +320,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -520,23 +520,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,10 +564,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DECC71-A3F2-C664-97B1-7B7AD20524B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F1B556-5EC2-F3FF-31BA-6E78504F2F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFBD61D-8BDD-4A02-960A-1D8E7F3937DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6B7DB-B7D5-4BDC-9FBC-8A89D8FDA53A}">
   <dimension ref="B2:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26166</v>
+        <v>87218</v>
       </c>
       <c r="G16" s="18">
         <v>2180462</v>
@@ -1163,19 +1163,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G17" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>87218</v>
@@ -1209,19 +1209,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G19" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1255,19 +1255,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G21" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>87218</v>
@@ -1301,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G23" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1330,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>87218</v>
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G25" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1376,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>87218</v>
@@ -1393,19 +1393,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G27" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1422,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>87218</v>
@@ -1439,19 +1439,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G29" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1468,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>87218</v>
@@ -1485,19 +1485,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G31" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1514,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>87218</v>
@@ -1531,19 +1531,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G33" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>87218</v>
@@ -1577,19 +1577,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G35" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1606,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>87218</v>
@@ -1623,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G37" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>87218</v>
@@ -1669,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G39" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1698,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>87218</v>
@@ -1715,19 +1715,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G41" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1744,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>87218</v>
@@ -1761,19 +1761,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G43" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1790,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>87218</v>
@@ -1807,19 +1807,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G45" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1836,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>87218</v>
@@ -1853,19 +1853,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G47" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>87218</v>
@@ -1899,19 +1899,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G49" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1928,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>87218</v>
@@ -1945,19 +1945,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G51" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1974,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>87218</v>
@@ -1991,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G53" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2020,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>87218</v>
@@ -2037,19 +2037,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G55" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2066,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>87218</v>
@@ -2083,19 +2083,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G57" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2112,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>87218</v>
@@ -2129,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>87218</v>
+        <v>73045</v>
       </c>
       <c r="G59" s="18">
-        <v>2180462</v>
+        <v>1826137</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2152,19 +2152,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>21914</v>
+        <v>87218</v>
       </c>
       <c r="G60" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2175,13 +2175,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>73045</v>
@@ -2198,19 +2198,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G62" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2221,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>73045</v>
@@ -2244,19 +2244,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G64" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2267,13 +2267,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
         <v>73045</v>
@@ -2290,19 +2290,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G66" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2313,13 +2313,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
         <v>73045</v>
@@ -2336,19 +2336,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G68" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2359,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>73045</v>
@@ -2382,19 +2382,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G70" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2405,13 +2405,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>73045</v>
@@ -2428,19 +2428,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G72" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2451,13 +2451,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>73045</v>
@@ -2474,19 +2474,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G74" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2497,13 +2497,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>73045</v>
@@ -2520,19 +2520,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G76" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2543,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>73045</v>
@@ -2566,19 +2566,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G78" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2589,13 +2589,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>73045</v>
@@ -2612,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G80" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2635,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>73045</v>
@@ -2658,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G82" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2681,13 +2681,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>73045</v>
@@ -2704,19 +2704,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G84" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2727,13 +2727,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>73045</v>
@@ -2750,19 +2750,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G86" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2773,13 +2773,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>73045</v>
@@ -2796,19 +2796,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G88" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2819,13 +2819,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>73045</v>
@@ -2842,19 +2842,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G90" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2865,13 +2865,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>73045</v>
@@ -2888,19 +2888,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G92" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2911,13 +2911,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>73045</v>
@@ -2934,19 +2934,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G94" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2957,13 +2957,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>73045</v>
@@ -2980,19 +2980,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G96" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3003,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>73045</v>
@@ -3026,19 +3026,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G98" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3049,13 +3049,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
         <v>73045</v>
@@ -3072,19 +3072,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F100" s="18">
-        <v>73045</v>
+        <v>87218</v>
       </c>
       <c r="G100" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3095,13 +3095,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="F101" s="18">
         <v>73045</v>
@@ -3118,19 +3118,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F102" s="18">
-        <v>73045</v>
+        <v>26166</v>
       </c>
       <c r="G102" s="18">
-        <v>1826137</v>
+        <v>2180462</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3141,16 +3141,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D103" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="F103" s="24">
-        <v>73045</v>
+        <v>21914</v>
       </c>
       <c r="G103" s="24">
         <v>1826137</v>
